--- a/GBP Bonds/Service Companies/Financials/Currys Group Ltd.xlsx
+++ b/GBP Bonds/Service Companies/Financials/Currys Group Ltd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renea\OneDrive\Documents\University of Bath\13. Dissertation\Data\GBP Bonds\Service Companies\Financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F26285F3-00B8-496B-9CE5-29BFFBBD1967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EA57E9-C7A0-45CD-A79D-5AB9D69BEE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financial Summary" sheetId="2" r:id="rId1"/>
@@ -862,7 +862,7 @@
     <t>Employees - Average</t>
   </si>
   <si>
-    <t>Currys Group Ltd</t>
+    <t>Currys Retail Group Ltd</t>
   </si>
 </sst>
 </file>
@@ -1014,12 +1014,6 @@
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1087,6 +1081,12 @@
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1395,7 +1395,7 @@
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1406,1355 +1406,1360 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>44970.849989189803</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="28" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="27">
         <v>42126</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="27">
         <v>41759</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="27">
         <v>41394</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="27">
         <v>41027</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="27">
         <v>40661</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="13">
         <v>4314</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="13">
         <v>4078.3</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="13">
         <v>3997.9</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="13">
         <v>3743.7</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="13">
         <v>3858</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="13">
         <v>4314</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="13">
         <v>4078.3</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="13">
         <v>3997.9</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="13">
         <v>3743.7</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="13">
         <v>3858</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="13">
         <v>139.4</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="14">
         <v>96.8</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="14">
         <v>55.1</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="14">
         <v>43</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="14">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="13">
         <v>215.2</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="13">
         <v>174.9</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="13">
         <v>133.19999999999999</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="13">
         <v>118.1</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="14">
         <v>76.3</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="13">
         <v>104.6</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="14">
         <v>70.900000000000006</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="14">
         <v>43.1</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="14">
         <v>47.4</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="14">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="13">
         <v>1290.3</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="13">
         <v>120.7</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="13">
         <v>121.8</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="13">
         <v>136.1</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="13">
         <v>146.69999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="13">
         <v>1290.3</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="13">
         <v>120.7</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="13">
         <v>121.8</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="13">
         <v>136.1</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="13">
         <v>146.69999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="13">
         <v>2314.4</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="13">
         <v>2118.6</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="13">
         <v>2065.8000000000002</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="13">
         <v>1884.6</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="13">
         <v>1885.3</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="14">
         <v>91.5</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="14">
         <v>93.6</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="14">
         <v>95.3</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="13">
         <v>109.2</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="14">
         <v>97.6</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="13">
         <v>475.6</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="13">
         <v>456</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="13">
         <v>391.7</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="13">
         <v>462</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="13">
         <v>443.3</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="13">
         <v>199.7</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="14">
         <v>44.7</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="14">
         <v>43.3</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="14">
         <v>36</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="13">
         <v>211.6</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="14">
         <v>36</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="14">
         <v>38.299999999999997</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="14">
         <v>41.2</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="14">
         <v>50.3</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="13">
         <v>134.69999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="13">
         <v>1169.5999999999999</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="15">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="15">
         <v>-2.6</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="15">
         <v>-22.3</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="14">
         <v>68.2</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="13">
         <v>149.80000000000001</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="14">
         <v>5.9</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="14">
         <v>2.1</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="15">
         <v>-14.8</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="14">
         <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="16">
         <v>100</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="16">
         <v>100</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="16">
         <v>100</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="16">
         <v>100</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="16">
         <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="16">
         <v>4.99</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="16">
         <v>4.29</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="16">
         <v>3.33</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="16">
         <v>3.15</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="16">
         <v>1.98</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="16">
         <v>3.23</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="16">
         <v>2.37</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="16">
         <v>1.38</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="16">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="16">
         <v>0.06</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="18">
+      <c r="B37" s="16">
         <v>2.71</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="16">
         <v>2.31</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="16">
         <v>1.41</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="16">
         <v>1.43</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="16">
         <v>0.48</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="18">
+      <c r="B38" s="16">
         <v>10.45</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="16">
         <v>24.65</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D38" s="16">
         <v>23.72</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E38" s="16">
         <v>11.73</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="16">
         <v>2.17</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="18">
+      <c r="B39" s="16">
         <v>2.42</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="16">
         <v>1.74</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D39" s="16">
         <v>1.08</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E39" s="16">
         <v>1.27</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="16">
         <v>0.47</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="15">
+      <c r="B40" s="13">
         <v>163.69999999999999</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="14">
         <v>5.9</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D40" s="14">
         <v>2.1</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="15">
         <v>-14.8</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F40" s="14">
         <v>76.900000000000006</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="18">
+      <c r="B41" s="16">
         <v>22.46</v>
       </c>
-      <c r="C41" s="18">
+      <c r="C41" s="16">
         <v>16.73</v>
       </c>
-      <c r="D41" s="18">
+      <c r="D41" s="16">
         <v>10.1</v>
       </c>
-      <c r="E41" s="18">
+      <c r="E41" s="16">
         <v>10.47</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="16">
         <v>4.2</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="18">
+      <c r="B42" s="16">
         <v>4.72</v>
       </c>
-      <c r="C42" s="18">
+      <c r="C42" s="16">
         <v>3.39</v>
       </c>
-      <c r="D42" s="18">
+      <c r="D42" s="16">
         <v>2.1800000000000002</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="16">
         <v>2.5099999999999998</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="16">
         <v>0.95</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="18">
+      <c r="B43" s="16">
         <v>24.86</v>
       </c>
-      <c r="C43" s="18">
+      <c r="C43" s="16">
         <v>17.39</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D43" s="16">
         <v>9.48</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E43" s="16">
         <v>17.97</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="16">
         <v>14.38</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="15">
+      <c r="B45" s="13">
         <v>4314</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="13">
         <v>4078.3</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D45" s="13">
         <v>3997.9</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E45" s="13">
         <v>3743.7</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F45" s="13">
         <v>3858</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B46" s="15">
+      <c r="B46" s="13">
         <v>139.4</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="14">
         <v>96.8</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D46" s="14">
         <v>55.1</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E46" s="14">
         <v>43</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F46" s="14">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="15">
+      <c r="B47" s="13">
         <v>215.2</v>
       </c>
-      <c r="C47" s="15">
+      <c r="C47" s="13">
         <v>174.9</v>
       </c>
-      <c r="D47" s="15">
+      <c r="D47" s="13">
         <v>133.19999999999999</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E47" s="13">
         <v>118.1</v>
       </c>
-      <c r="F47" s="16">
+      <c r="F47" s="14">
         <v>76.3</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B48" s="15">
+      <c r="B48" s="13">
         <v>104.6</v>
       </c>
-      <c r="C48" s="16">
+      <c r="C48" s="14">
         <v>70.900000000000006</v>
       </c>
-      <c r="D48" s="16">
+      <c r="D48" s="14">
         <v>43.1</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E48" s="14">
         <v>47.4</v>
       </c>
-      <c r="F48" s="16">
+      <c r="F48" s="14">
         <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B49" s="16">
+      <c r="B49" s="14">
         <v>0.32</v>
       </c>
-      <c r="C49" s="16">
+      <c r="C49" s="14">
         <v>0.32</v>
       </c>
-      <c r="D49" s="16">
+      <c r="D49" s="14">
         <v>0.32</v>
       </c>
-      <c r="E49" s="16">
+      <c r="E49" s="14">
         <v>0.32</v>
       </c>
-      <c r="F49" s="16">
+      <c r="F49" s="14">
         <v>0.32</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="18">
+      <c r="B51" s="16">
         <v>3.95</v>
       </c>
-      <c r="C51" s="18">
+      <c r="C51" s="16">
         <v>4.42</v>
       </c>
-      <c r="D51" s="18">
+      <c r="D51" s="16">
         <v>4.6100000000000003</v>
       </c>
-      <c r="E51" s="18">
+      <c r="E51" s="16">
         <v>5.79</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F51" s="16">
         <v>5.18</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="18">
+      <c r="B52" s="16">
         <v>16.13</v>
       </c>
-      <c r="C52" s="18">
+      <c r="C52" s="16">
         <v>17.03</v>
       </c>
-      <c r="D52" s="18">
+      <c r="D52" s="16">
         <v>19.57</v>
       </c>
-      <c r="E52" s="18">
+      <c r="E52" s="16">
         <v>19.12</v>
       </c>
-      <c r="F52" s="18">
+      <c r="F52" s="16">
         <v>18.04</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="18">
+      <c r="B53" s="16">
         <v>19.239999999999998</v>
       </c>
-      <c r="C53" s="18">
+      <c r="C53" s="16">
         <v>20.53</v>
       </c>
-      <c r="D53" s="18">
+      <c r="D53" s="16">
         <v>24.33</v>
       </c>
-      <c r="E53" s="18">
+      <c r="E53" s="16">
         <v>23.64</v>
       </c>
-      <c r="F53" s="18">
+      <c r="F53" s="16">
         <v>22.02</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B54" s="16">
+      <c r="B54" s="14">
         <v>24.7</v>
       </c>
-      <c r="C54" s="16">
+      <c r="C54" s="14">
         <v>4.55</v>
       </c>
-      <c r="D54" s="17">
+      <c r="D54" s="15">
         <v>-3.05</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E54" s="14">
         <v>65.349999999999994</v>
       </c>
-      <c r="F54" s="16">
+      <c r="F54" s="14">
         <v>57.95</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="18">
+      <c r="B55" s="16">
         <v>23.61</v>
       </c>
-      <c r="C55" s="18">
+      <c r="C55" s="16">
         <v>6.42</v>
       </c>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18">
+      <c r="D55" s="16"/>
+      <c r="E55" s="16">
         <v>137.87</v>
       </c>
-      <c r="F55" s="18">
+      <c r="F55" s="16">
         <v>321.94</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B56" s="16">
+      <c r="B56" s="14">
         <v>3.65</v>
       </c>
-      <c r="C56" s="16">
+      <c r="C56" s="14">
         <v>3.8</v>
       </c>
-      <c r="D56" s="16">
+      <c r="D56" s="14">
         <v>2.59</v>
       </c>
-      <c r="E56" s="16">
+      <c r="E56" s="14">
         <v>0.72</v>
       </c>
-      <c r="F56" s="16">
+      <c r="F56" s="14">
         <v>0.04</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B57" s="16">
+      <c r="B57" s="14">
         <v>1</v>
       </c>
-      <c r="C57" s="16">
+      <c r="C57" s="14">
         <v>1</v>
       </c>
-      <c r="D57" s="16">
+      <c r="D57" s="14">
         <v>1</v>
       </c>
-      <c r="E57" s="16">
+      <c r="E57" s="14">
         <v>1</v>
       </c>
-      <c r="F57" s="16">
+      <c r="F57" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="18">
+      <c r="B58" s="16">
         <v>0</v>
       </c>
-      <c r="C58" s="18">
+      <c r="C58" s="16">
         <v>0</v>
       </c>
-      <c r="D58" s="18">
+      <c r="D58" s="16">
         <v>0</v>
       </c>
-      <c r="E58" s="18">
+      <c r="E58" s="16">
         <v>0</v>
       </c>
-      <c r="F58" s="18">
+      <c r="F58" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B60" s="16">
+      <c r="B60" s="14">
         <v>91.5</v>
       </c>
-      <c r="C60" s="16">
+      <c r="C60" s="14">
         <v>93.6</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D60" s="14">
         <v>95.3</v>
       </c>
-      <c r="E60" s="15">
+      <c r="E60" s="13">
         <v>109.2</v>
       </c>
-      <c r="F60" s="16">
+      <c r="F60" s="14">
         <v>97.6</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B61" s="15">
+      <c r="B61" s="13">
         <v>1290.3</v>
       </c>
-      <c r="C61" s="15">
+      <c r="C61" s="13">
         <v>120.7</v>
       </c>
-      <c r="D61" s="15">
+      <c r="D61" s="13">
         <v>121.8</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E61" s="13">
         <v>136.1</v>
       </c>
-      <c r="F61" s="15">
+      <c r="F61" s="13">
         <v>146.69999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B63" s="16">
+      <c r="B63" s="14">
         <v>1.95</v>
       </c>
-      <c r="C63" s="16">
+      <c r="C63" s="14">
         <v>1.95</v>
       </c>
-      <c r="D63" s="16">
+      <c r="D63" s="14">
         <v>2.02</v>
       </c>
-      <c r="E63" s="16">
+      <c r="E63" s="14">
         <v>1.99</v>
       </c>
-      <c r="F63" s="16">
+      <c r="F63" s="14">
         <v>2.04</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B64" s="18">
+      <c r="B64" s="16">
         <v>2.71</v>
       </c>
-      <c r="C64" s="18">
+      <c r="C64" s="16">
         <v>2.31</v>
       </c>
-      <c r="D64" s="18">
+      <c r="D64" s="16">
         <v>1.41</v>
       </c>
-      <c r="E64" s="18">
+      <c r="E64" s="16">
         <v>1.43</v>
       </c>
-      <c r="F64" s="18">
+      <c r="F64" s="16">
         <v>0.48</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B65" s="18">
+      <c r="B65" s="16">
         <v>5.27</v>
       </c>
-      <c r="C65" s="18">
+      <c r="C65" s="16">
         <v>4.5</v>
       </c>
-      <c r="D65" s="18">
+      <c r="D65" s="16">
         <v>2.86</v>
       </c>
-      <c r="E65" s="18">
+      <c r="E65" s="16">
         <v>2.85</v>
       </c>
-      <c r="F65" s="18">
+      <c r="F65" s="16">
         <v>0.97</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B66" s="16">
+      <c r="B66" s="14">
         <v>4.76</v>
       </c>
-      <c r="C66" s="16">
+      <c r="C66" s="14">
         <v>4.9400000000000004</v>
       </c>
-      <c r="D66" s="16">
+      <c r="D66" s="14">
         <v>4.63</v>
       </c>
-      <c r="E66" s="16">
+      <c r="E66" s="14">
         <v>4.16</v>
       </c>
-      <c r="F66" s="16">
+      <c r="F66" s="14">
         <v>4.42</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B67" s="18">
+      <c r="B67" s="16">
         <v>25.08</v>
       </c>
-      <c r="C67" s="18">
+      <c r="C67" s="16">
         <v>22.2</v>
       </c>
-      <c r="D67" s="18">
+      <c r="D67" s="16">
         <v>13.24</v>
       </c>
-      <c r="E67" s="18">
+      <c r="E67" s="16">
         <v>11.86</v>
       </c>
-      <c r="F67" s="18">
+      <c r="F67" s="16">
         <v>4.29</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B68" s="16">
+      <c r="B68" s="14">
         <v>0.9</v>
       </c>
-      <c r="C68" s="16">
+      <c r="C68" s="14">
         <v>0.75</v>
       </c>
-      <c r="D68" s="16">
+      <c r="D68" s="14">
         <v>0.76</v>
       </c>
-      <c r="E68" s="16">
+      <c r="E68" s="14">
         <v>0.88</v>
       </c>
-      <c r="F68" s="16">
+      <c r="F68" s="14">
         <v>0.98</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B69" s="18">
+      <c r="B69" s="16">
         <v>22.46</v>
       </c>
-      <c r="C69" s="18">
+      <c r="C69" s="16">
         <v>16.73</v>
       </c>
-      <c r="D69" s="18">
+      <c r="D69" s="16">
         <v>10.1</v>
       </c>
-      <c r="E69" s="18">
+      <c r="E69" s="16">
         <v>10.47</v>
       </c>
-      <c r="F69" s="18">
+      <c r="F69" s="16">
         <v>4.2</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="16">
+      <c r="B70" s="14">
         <v>1</v>
       </c>
-      <c r="C70" s="16">
+      <c r="C70" s="14">
         <v>1</v>
       </c>
-      <c r="D70" s="16">
+      <c r="D70" s="14">
         <v>1</v>
       </c>
-      <c r="E70" s="16">
+      <c r="E70" s="14">
         <v>1</v>
       </c>
-      <c r="F70" s="16">
+      <c r="F70" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B71" s="18">
+      <c r="B71" s="16">
         <v>22.46</v>
       </c>
-      <c r="C71" s="18">
+      <c r="C71" s="16">
         <v>16.73</v>
       </c>
-      <c r="D71" s="18">
+      <c r="D71" s="16">
         <v>10.1</v>
       </c>
-      <c r="E71" s="18">
+      <c r="E71" s="16">
         <v>10.47</v>
       </c>
-      <c r="F71" s="18">
+      <c r="F71" s="16">
         <v>4.2</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="12" t="s">
+      <c r="A72" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
     </row>
     <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B73" s="16">
+      <c r="B73" s="14">
         <v>1.9</v>
       </c>
-      <c r="C73" s="16">
+      <c r="C73" s="14">
         <v>1.84</v>
       </c>
-      <c r="D73" s="16">
+      <c r="D73" s="14">
         <v>1.72</v>
       </c>
-      <c r="E73" s="16">
+      <c r="E73" s="14">
         <v>1.66</v>
       </c>
-      <c r="F73" s="16">
+      <c r="F73" s="14">
         <v>1.48</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B74" s="16">
+      <c r="B74" s="14">
         <v>1.47</v>
       </c>
-      <c r="C74" s="16">
+      <c r="C74" s="14">
         <v>1.42</v>
       </c>
-      <c r="D74" s="16">
+      <c r="D74" s="14">
         <v>1.26</v>
       </c>
-      <c r="E74" s="16">
+      <c r="E74" s="14">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F74" s="16">
+      <c r="F74" s="14">
         <v>0.97</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B75" s="16">
+      <c r="B75" s="14">
         <v>0.38</v>
       </c>
-      <c r="C75" s="16">
+      <c r="C75" s="14">
         <v>0.36</v>
       </c>
-      <c r="D75" s="16">
+      <c r="D75" s="14">
         <v>0.31</v>
       </c>
-      <c r="E75" s="16">
+      <c r="E75" s="14">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F75" s="16">
+      <c r="F75" s="14">
         <v>0.22</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
     </row>
     <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B77" s="16">
+      <c r="B77" s="14">
         <v>6.57</v>
       </c>
-      <c r="C77" s="16">
+      <c r="C77" s="14">
         <v>3.8</v>
       </c>
-      <c r="D77" s="16">
+      <c r="D77" s="14">
         <v>4.51</v>
       </c>
-      <c r="E77" s="16">
+      <c r="E77" s="14">
         <v>5.07</v>
       </c>
-      <c r="F77" s="16">
+      <c r="F77" s="14">
         <v>5.29</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B78" s="16">
+      <c r="B78" s="14">
         <v>55.68</v>
       </c>
-      <c r="C78" s="16">
+      <c r="C78" s="14">
         <v>96.42</v>
       </c>
-      <c r="D78" s="16">
+      <c r="D78" s="14">
         <v>81.239999999999995</v>
       </c>
-      <c r="E78" s="16">
+      <c r="E78" s="14">
         <v>72.150000000000006</v>
       </c>
-      <c r="F78" s="16">
+      <c r="F78" s="14">
         <v>69.23</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B79" s="16">
+      <c r="B79" s="14">
         <v>55.68</v>
       </c>
-      <c r="C79" s="16">
+      <c r="C79" s="14">
         <v>96.42</v>
       </c>
-      <c r="D79" s="16">
+      <c r="D79" s="14">
         <v>81.239999999999995</v>
       </c>
-      <c r="E79" s="16">
+      <c r="E79" s="14">
         <v>72.150000000000006</v>
       </c>
-      <c r="F79" s="16">
+      <c r="F79" s="14">
         <v>69.23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B11"/>
+    <mergeCell ref="C11"/>
+    <mergeCell ref="D11"/>
+    <mergeCell ref="E11"/>
+    <mergeCell ref="F11"/>
     <mergeCell ref="E12"/>
     <mergeCell ref="E13"/>
     <mergeCell ref="F12"/>
@@ -2765,11 +2770,6 @@
     <mergeCell ref="C13"/>
     <mergeCell ref="D12"/>
     <mergeCell ref="D13"/>
-    <mergeCell ref="B11"/>
-    <mergeCell ref="C11"/>
-    <mergeCell ref="D11"/>
-    <mergeCell ref="E11"/>
-    <mergeCell ref="F11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.75"/>
   <pageSetup fitToHeight="0"/>
@@ -2794,821 +2794,826 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>44970.849989247698</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="28" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="27">
         <v>42126</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="27">
         <v>41759</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="27">
         <v>41394</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="27">
         <v>41027</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="27">
         <v>40661</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="13">
         <v>184.2</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="14">
         <v>24.1</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="14">
         <v>14.8</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="14">
         <v>12.2</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="13">
         <v>181.8</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="17">
+      <c r="B18" s="18"/>
+      <c r="C18" s="15">
         <v>-17.7</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="15">
         <v>-2.6</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="13">
         <v>184.2</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="14">
         <v>41.8</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="14">
         <v>17.399999999999999</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="14">
         <v>12.2</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="13">
         <v>181.8</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="16">
+      <c r="B20" s="18"/>
+      <c r="C20" s="14">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="14">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="14">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="14">
         <v>1.2</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="14">
         <v>15.5</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="14">
         <v>22.8</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="14">
         <v>30.8</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="14">
         <v>26</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="14">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="13">
         <v>199.7</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="14">
         <v>44.7</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="14">
         <v>43.3</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="14">
         <v>36</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="13">
         <v>211.6</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="20">
         <v>199.7</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="21">
         <v>44.7</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="21">
         <v>43.3</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="21">
         <v>36</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="20">
         <v>211.6</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="14">
         <v>36</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="14">
         <v>38.299999999999997</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="14">
         <v>41.2</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="14">
         <v>50.3</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="13">
         <v>134.69999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="14">
         <v>36</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="14">
         <v>38.299999999999997</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="14">
         <v>41.2</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="14">
         <v>50.3</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="13">
         <v>134.69999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="14">
         <v>36</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="14">
         <v>38.799999999999997</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="14">
         <v>41.2</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="14">
         <v>50.8</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="13">
         <v>134.69999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="16">
+      <c r="B28" s="18"/>
+      <c r="C28" s="14">
         <v>0.5</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="16">
+      <c r="D28" s="18"/>
+      <c r="E28" s="14">
         <v>0.5</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="14">
         <v>36</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="14">
         <v>38.799999999999997</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="14">
         <v>41.2</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="14">
         <v>50.8</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="13">
         <v>134.69999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="16">
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="14">
         <v>3.4</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="16">
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="14">
         <v>3.4</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="25">
+      <c r="B32" s="23">
         <v>-36</v>
       </c>
-      <c r="C32" s="25">
+      <c r="C32" s="23">
         <v>-38.299999999999997</v>
       </c>
-      <c r="D32" s="25">
+      <c r="D32" s="23">
         <v>-37.799999999999997</v>
       </c>
-      <c r="E32" s="25">
+      <c r="E32" s="23">
         <v>-50.3</v>
       </c>
-      <c r="F32" s="26">
+      <c r="F32" s="24">
         <v>-134.69999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B34" s="16">
+      <c r="B34" s="14">
         <v>13.9</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20">
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18">
         <v>0</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="14">
         <v>1.9</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="14">
         <v>13.9</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20">
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18">
         <v>0</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="14">
         <v>1.9</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B36" s="15">
         <v>-7.8</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="15">
         <v>-7.5</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D36" s="15">
         <v>-8.1</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="15">
         <v>-8</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="15">
         <v>-6.8</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="17">
+      <c r="B37" s="15">
         <v>-7.8</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="15">
         <v>-7.5</v>
       </c>
-      <c r="D37" s="17">
+      <c r="D37" s="15">
         <v>-8.1</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="15">
         <v>-8</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F37" s="15">
         <v>-6.8</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="16">
+      <c r="B38" s="14">
         <v>7.8</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="14">
         <v>7.5</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D38" s="14">
         <v>8.1</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E38" s="14">
         <v>8</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F38" s="14">
         <v>6.8</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B39" s="15">
+      <c r="B39" s="13">
         <v>1027.5999999999999</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="B40" s="22">
+      <c r="B40" s="20">
         <v>1005.9</v>
       </c>
-      <c r="C40" s="25">
+      <c r="C40" s="23">
         <v>-7.5</v>
       </c>
-      <c r="D40" s="25">
+      <c r="D40" s="23">
         <v>-8.1</v>
       </c>
-      <c r="E40" s="25">
+      <c r="E40" s="23">
         <v>-8</v>
       </c>
-      <c r="F40" s="25">
+      <c r="F40" s="23">
         <v>-8.6999999999999993</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="22">
+      <c r="B42" s="20">
         <v>1169.5999999999999</v>
       </c>
-      <c r="C42" s="25">
+      <c r="C42" s="23">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="D42" s="25">
+      <c r="D42" s="23">
         <v>-2.6</v>
       </c>
-      <c r="E42" s="25">
+      <c r="E42" s="23">
         <v>-22.3</v>
       </c>
-      <c r="F42" s="23">
+      <c r="F42" s="21">
         <v>68.2</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="B43" s="15">
+      <c r="B43" s="13">
         <v>1169.5999999999999</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="15">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D43" s="15">
         <v>-2.6</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E43" s="15">
         <v>-22.3</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F43" s="14">
         <v>68.2</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B44" s="15">
+      <c r="B44" s="13">
         <v>120.7</v>
       </c>
-      <c r="C44" s="15">
+      <c r="C44" s="13">
         <v>121.8</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D44" s="13">
         <v>124.4</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E44" s="13">
         <v>146.69999999999999</v>
       </c>
-      <c r="F44" s="16">
+      <c r="F44" s="14">
         <v>78.5</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B45" s="15">
+      <c r="B45" s="13">
         <v>1290.3</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="13">
         <v>120.7</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D45" s="13">
         <v>121.8</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E45" s="13">
         <v>124.4</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F45" s="13">
         <v>146.69999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="16">
+      <c r="B47" s="18"/>
+      <c r="C47" s="14">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D47" s="14">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E47" s="16">
+      <c r="E47" s="14">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F47" s="16">
+      <c r="F47" s="14">
         <v>1.2</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B48" s="16">
+      <c r="B48" s="14">
         <v>15.5</v>
       </c>
-      <c r="C48" s="16">
+      <c r="C48" s="14">
         <v>22.8</v>
       </c>
-      <c r="D48" s="16">
+      <c r="D48" s="14">
         <v>30.8</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E48" s="14">
         <v>26</v>
       </c>
-      <c r="F48" s="16">
+      <c r="F48" s="14">
         <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B49" s="15">
+      <c r="B49" s="13">
         <v>199.7</v>
       </c>
-      <c r="C49" s="16">
+      <c r="C49" s="14">
         <v>46.9</v>
       </c>
-      <c r="D49" s="16">
+      <c r="D49" s="14">
         <v>45.6</v>
       </c>
-      <c r="E49" s="16">
+      <c r="E49" s="14">
         <v>38.200000000000003</v>
       </c>
-      <c r="F49" s="15">
+      <c r="F49" s="13">
         <v>212.8</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B50" s="15">
+      <c r="B50" s="13">
         <v>155.9</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C50" s="15">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D50" s="15">
         <v>-6</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="15">
         <v>-22.3</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F50" s="14">
         <v>70.099999999999994</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="15">
+      <c r="B51" s="13">
         <v>149.80000000000001</v>
       </c>
-      <c r="C51" s="16">
+      <c r="C51" s="14">
         <v>5.9</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D51" s="14">
         <v>2.1</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E51" s="15">
         <v>-14.8</v>
       </c>
-      <c r="F51" s="16">
+      <c r="F51" s="14">
         <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="15">
+      <c r="B52" s="13">
         <v>163.69999999999999</v>
       </c>
-      <c r="C52" s="16">
+      <c r="C52" s="14">
         <v>5.9</v>
       </c>
-      <c r="D52" s="16">
+      <c r="D52" s="14">
         <v>2.1</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E52" s="15">
         <v>-14.8</v>
       </c>
-      <c r="F52" s="16">
+      <c r="F52" s="14">
         <v>76.900000000000006</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B11"/>
+    <mergeCell ref="C11"/>
+    <mergeCell ref="D11"/>
+    <mergeCell ref="E11"/>
+    <mergeCell ref="F11"/>
     <mergeCell ref="E12"/>
     <mergeCell ref="E13"/>
     <mergeCell ref="F12"/>
@@ -3619,11 +3624,6 @@
     <mergeCell ref="C13"/>
     <mergeCell ref="D12"/>
     <mergeCell ref="D13"/>
-    <mergeCell ref="B11"/>
-    <mergeCell ref="C11"/>
-    <mergeCell ref="D11"/>
-    <mergeCell ref="E11"/>
-    <mergeCell ref="F11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.75"/>
   <pageSetup fitToHeight="0"/>
@@ -3638,7 +3638,7 @@
   <dimension ref="A1:G114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -3648,2252 +3648,2254 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>44970.849989270799</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="28" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="27">
         <v>42126</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="27">
         <v>41759</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="27">
         <v>41394</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="27">
         <v>41027</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="27">
         <v>40661</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="27">
         <v>40296</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="9" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="13">
         <v>1290.3</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="13">
         <v>120.7</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="13">
         <v>121.8</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="13">
         <v>136.1</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="13">
         <v>146.69999999999999</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="14">
         <v>78.5</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="13">
         <v>1290.3</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="13">
         <v>120.7</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="13">
         <v>121.8</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="13">
         <v>136.1</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="13">
         <v>146.69999999999999</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="14">
         <v>78.5</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="13">
         <v>152.4</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="13">
         <v>1160.3</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="13">
         <v>988.4</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="13">
         <v>786.3</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="13">
         <v>689.6</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="13">
         <v>770</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="13">
         <v>146</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="13">
         <v>1153.9000000000001</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="13">
         <v>985.8</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="13">
         <v>786.3</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="13">
         <v>689.6</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="13">
         <v>770</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="14">
         <v>6.4</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="14">
         <v>6.4</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="14">
         <v>2.6</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="13">
         <v>418.8</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="13">
         <v>377.5</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="13">
         <v>413.4</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="13">
         <v>395.7</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="13">
         <v>441.4</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="13">
         <v>463.4</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="20">
         <v>1861.5</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="20">
         <v>1658.5</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="20">
         <v>1523.6</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="20">
         <v>1318.1</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="20">
         <v>1277.7</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="20">
         <v>1311.9</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="14">
         <v>36.799999999999997</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="14">
         <v>36.799999999999997</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="14">
         <v>36.799999999999997</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="14">
         <v>36.799999999999997</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="14">
         <v>36.799999999999997</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="14">
         <v>46.4</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="14">
         <v>36.799999999999997</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="14">
         <v>36.799999999999997</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="14">
         <v>36.799999999999997</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="14">
         <v>36.799999999999997</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="14">
         <v>36.799999999999997</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="14">
         <v>46.4</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20">
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18">
         <v>0</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="14">
         <v>0.5</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G27" s="14">
         <v>2.5</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20">
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18">
         <v>0</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="14">
         <v>0.5</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G28" s="14">
         <v>2.5</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="13">
         <v>195.7</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="13">
         <v>234.5</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="13">
         <v>283</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="13">
         <v>311.7</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="13">
         <v>339.4</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="13">
         <v>291.5</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="13">
         <v>140.69999999999999</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="13">
         <v>110.3</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="13">
         <v>132.5</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="13">
         <v>110.7</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="13">
         <v>115.2</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="13">
         <v>122.9</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="13">
         <v>140.69999999999999</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="13">
         <v>110.3</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="13">
         <v>132.5</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="13">
         <v>110.7</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="13">
         <v>115.2</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="13">
         <v>122.9</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32" s="14">
         <v>79.7</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="14">
         <v>78.5</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="14">
         <v>89.9</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="13">
         <v>107.3</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="13">
         <v>115.7</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="13">
         <v>128.6</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="16">
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="14">
         <v>15.4</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F33" s="14">
         <v>15.4</v>
       </c>
-      <c r="G33" s="16">
+      <c r="G33" s="14">
         <v>15.4</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="16">
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="14">
         <v>91.9</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="13">
         <v>100.3</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="13">
         <v>113.2</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="B35" s="22">
+      <c r="B35" s="20">
         <v>452.9</v>
       </c>
-      <c r="C35" s="22">
+      <c r="C35" s="20">
         <v>460.1</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="20">
         <v>542.20000000000005</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="20">
         <v>566.5</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="20">
         <v>607.6</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="20">
         <v>591.9</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="22">
+      <c r="B37" s="20">
         <v>2314.4</v>
       </c>
-      <c r="C37" s="22">
+      <c r="C37" s="20">
         <v>2118.6</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="20">
         <v>2065.8000000000002</v>
       </c>
-      <c r="E37" s="22">
+      <c r="E37" s="20">
         <v>1884.6</v>
       </c>
-      <c r="F37" s="22">
+      <c r="F37" s="20">
         <v>1885.3</v>
       </c>
-      <c r="G37" s="22">
+      <c r="G37" s="20">
         <v>1903.8</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B39" s="15">
+      <c r="B39" s="13">
         <v>974.3</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="13">
         <v>892.8</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="13">
         <v>872.5</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="13">
         <v>773.2</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F39" s="13">
         <v>854.5</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G39" s="13">
         <v>887</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="B40" s="15">
+      <c r="B40" s="13">
         <v>974.3</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="13">
         <v>892.8</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="13">
         <v>872.5</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="13">
         <v>773.2</v>
       </c>
-      <c r="F40" s="15">
+      <c r="F40" s="13">
         <v>854.5</v>
       </c>
-      <c r="G40" s="15">
+      <c r="G40" s="13">
         <v>887</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B41" s="16">
+      <c r="B41" s="14">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="14">
         <v>2</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D41" s="14">
         <v>1.7</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="14">
         <v>13.4</v>
       </c>
-      <c r="F41" s="16">
+      <c r="F41" s="14">
         <v>1.9</v>
       </c>
-      <c r="G41" s="16">
+      <c r="G41" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="16">
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="14">
         <v>11.7</v>
       </c>
-      <c r="F42" s="20">
+      <c r="F42" s="18">
         <v>0</v>
       </c>
-      <c r="G42" s="20">
+      <c r="G42" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="B43" s="16">
+      <c r="B43" s="14">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C43" s="14">
         <v>2</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D43" s="14">
         <v>1.7</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43" s="14">
         <v>1.7</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F43" s="14">
         <v>1.9</v>
       </c>
-      <c r="G43" s="16">
+      <c r="G43" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="B44" s="16">
+      <c r="B44" s="14">
         <v>4.8</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="14">
         <v>5.2</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D44" s="14">
         <v>10.4</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E44" s="14">
         <v>5.7</v>
       </c>
-      <c r="F44" s="16">
+      <c r="F44" s="14">
         <v>7.2</v>
       </c>
-      <c r="G44" s="16">
+      <c r="G44" s="14">
         <v>10.199999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="B45" s="16">
+      <c r="B45" s="14">
         <v>4.8</v>
       </c>
-      <c r="C45" s="16">
+      <c r="C45" s="14">
         <v>5.2</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D45" s="14">
         <v>10.4</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E45" s="14">
         <v>5.7</v>
       </c>
-      <c r="F45" s="16">
+      <c r="F45" s="14">
         <v>7.2</v>
       </c>
-      <c r="G45" s="16">
+      <c r="G45" s="14">
         <v>10.199999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="B46" s="22">
+      <c r="B46" s="20">
         <v>981.3</v>
       </c>
-      <c r="C46" s="22">
+      <c r="C46" s="20">
         <v>900</v>
       </c>
-      <c r="D46" s="22">
+      <c r="D46" s="20">
         <v>884.6</v>
       </c>
-      <c r="E46" s="22">
+      <c r="E46" s="20">
         <v>792.3</v>
       </c>
-      <c r="F46" s="22">
+      <c r="F46" s="20">
         <v>863.6</v>
       </c>
-      <c r="G46" s="22">
+      <c r="G46" s="20">
         <v>898.2</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
     </row>
     <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="B48" s="15">
+      <c r="B48" s="13">
         <v>266.10000000000002</v>
       </c>
-      <c r="C48" s="15">
+      <c r="C48" s="13">
         <v>255.1</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D48" s="13">
         <v>272</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E48" s="13">
         <v>264.8</v>
       </c>
-      <c r="F48" s="15">
+      <c r="F48" s="13">
         <v>226.5</v>
       </c>
-      <c r="G48" s="15">
+      <c r="G48" s="13">
         <v>222.7</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="B49" s="15">
+      <c r="B49" s="13">
         <v>266.10000000000002</v>
       </c>
-      <c r="C49" s="15">
+      <c r="C49" s="13">
         <v>255.1</v>
       </c>
-      <c r="D49" s="15">
+      <c r="D49" s="13">
         <v>272</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49" s="13">
         <v>264.8</v>
       </c>
-      <c r="F49" s="15">
+      <c r="F49" s="13">
         <v>226.5</v>
       </c>
-      <c r="G49" s="15">
+      <c r="G49" s="13">
         <v>222.7</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="B50" s="16">
+      <c r="B50" s="14">
         <v>89.3</v>
       </c>
-      <c r="C50" s="16">
+      <c r="C50" s="14">
         <v>91.6</v>
       </c>
-      <c r="D50" s="16">
+      <c r="D50" s="14">
         <v>93.6</v>
       </c>
-      <c r="E50" s="16">
+      <c r="E50" s="14">
         <v>95.8</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F50" s="14">
         <v>95.7</v>
       </c>
-      <c r="G50" s="16">
+      <c r="G50" s="14">
         <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="B51" s="16">
+      <c r="B51" s="14">
         <v>89.3</v>
       </c>
-      <c r="C51" s="16">
+      <c r="C51" s="14">
         <v>91.6</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D51" s="14">
         <v>93.6</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E51" s="14">
         <v>95.8</v>
       </c>
-      <c r="F51" s="16">
+      <c r="F51" s="14">
         <v>95.7</v>
       </c>
-      <c r="G51" s="16">
+      <c r="G51" s="14">
         <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="B52" s="15">
+      <c r="B52" s="13">
         <v>502.1</v>
       </c>
-      <c r="C52" s="15">
+      <c r="C52" s="13">
         <v>415.9</v>
       </c>
-      <c r="D52" s="15">
+      <c r="D52" s="13">
         <v>423.9</v>
       </c>
-      <c r="E52" s="15">
+      <c r="E52" s="13">
         <v>269.7</v>
       </c>
-      <c r="F52" s="15">
+      <c r="F52" s="13">
         <v>256.2</v>
       </c>
-      <c r="G52" s="15">
+      <c r="G52" s="13">
         <v>271.7</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="B53" s="15">
+      <c r="B53" s="13">
         <v>502.1</v>
       </c>
-      <c r="C53" s="15">
+      <c r="C53" s="13">
         <v>415.9</v>
       </c>
-      <c r="D53" s="15">
+      <c r="D53" s="13">
         <v>423.9</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E53" s="13">
         <v>269.7</v>
       </c>
-      <c r="F53" s="15">
+      <c r="F53" s="13">
         <v>256.2</v>
       </c>
-      <c r="G53" s="15">
+      <c r="G53" s="13">
         <v>271.7</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="24" t="s">
+      <c r="A54" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="B54" s="15">
+      <c r="B54" s="13">
         <v>486.3</v>
       </c>
-      <c r="C54" s="15">
+      <c r="C54" s="13">
         <v>399.8</v>
       </c>
-      <c r="D54" s="15">
+      <c r="D54" s="13">
         <v>406.4</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E54" s="13">
         <v>261.89999999999998</v>
       </c>
-      <c r="F54" s="15">
+      <c r="F54" s="13">
         <v>244</v>
       </c>
-      <c r="G54" s="15">
+      <c r="G54" s="13">
         <v>263.5</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="24" t="s">
+      <c r="A55" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="B55" s="16">
+      <c r="B55" s="14">
         <v>15.8</v>
       </c>
-      <c r="C55" s="16">
+      <c r="C55" s="14">
         <v>16.100000000000001</v>
       </c>
-      <c r="D55" s="16">
+      <c r="D55" s="14">
         <v>17.5</v>
       </c>
-      <c r="E55" s="16">
+      <c r="E55" s="14">
         <v>7.8</v>
       </c>
-      <c r="F55" s="16">
+      <c r="F55" s="14">
         <v>12.2</v>
       </c>
-      <c r="G55" s="16">
+      <c r="G55" s="14">
         <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="B56" s="15">
+      <c r="B56" s="13">
         <v>857.5</v>
       </c>
-      <c r="C56" s="15">
+      <c r="C56" s="13">
         <v>762.6</v>
       </c>
-      <c r="D56" s="15">
+      <c r="D56" s="13">
         <v>789.5</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E56" s="13">
         <v>630.29999999999995</v>
       </c>
-      <c r="F56" s="15">
+      <c r="F56" s="13">
         <v>578.4</v>
       </c>
-      <c r="G56" s="15">
+      <c r="G56" s="13">
         <v>591.4</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="B58" s="22">
+      <c r="B58" s="20">
         <v>1838.8</v>
       </c>
-      <c r="C58" s="22">
+      <c r="C58" s="20">
         <v>1662.6</v>
       </c>
-      <c r="D58" s="22">
+      <c r="D58" s="20">
         <v>1674.1</v>
       </c>
-      <c r="E58" s="22">
+      <c r="E58" s="20">
         <v>1422.6</v>
       </c>
-      <c r="F58" s="22">
+      <c r="F58" s="20">
         <v>1442</v>
       </c>
-      <c r="G58" s="22">
+      <c r="G58" s="20">
         <v>1489.6</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
     </row>
     <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="B60" s="15">
+      <c r="B60" s="13">
         <v>475.6</v>
       </c>
-      <c r="C60" s="15">
+      <c r="C60" s="13">
         <v>456</v>
       </c>
-      <c r="D60" s="15">
+      <c r="D60" s="13">
         <v>391.7</v>
       </c>
-      <c r="E60" s="15">
+      <c r="E60" s="13">
         <v>462</v>
       </c>
-      <c r="F60" s="15">
+      <c r="F60" s="13">
         <v>443.3</v>
       </c>
-      <c r="G60" s="15">
+      <c r="G60" s="13">
         <v>414.2</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="19" t="s">
+      <c r="A61" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="B61" s="15">
+      <c r="B61" s="13">
         <v>475.6</v>
       </c>
-      <c r="C61" s="15">
+      <c r="C61" s="13">
         <v>456</v>
       </c>
-      <c r="D61" s="15">
+      <c r="D61" s="13">
         <v>391.7</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E61" s="13">
         <v>462</v>
       </c>
-      <c r="F61" s="15">
+      <c r="F61" s="13">
         <v>443.3</v>
       </c>
-      <c r="G61" s="15">
+      <c r="G61" s="13">
         <v>414.2</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="24" t="s">
+      <c r="A62" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="B62" s="15">
+      <c r="B62" s="13">
         <v>563.4</v>
       </c>
-      <c r="C62" s="15">
+      <c r="C62" s="13">
         <v>563.4</v>
       </c>
-      <c r="D62" s="15">
+      <c r="D62" s="13">
         <v>563.4</v>
       </c>
-      <c r="E62" s="15">
+      <c r="E62" s="13">
         <v>563.4</v>
       </c>
-      <c r="F62" s="15">
+      <c r="F62" s="13">
         <v>563.4</v>
       </c>
-      <c r="G62" s="15">
+      <c r="G62" s="13">
         <v>563.4</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="27" t="s">
+      <c r="A63" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="B63" s="16">
+      <c r="B63" s="14">
         <v>0.3</v>
       </c>
-      <c r="C63" s="16">
+      <c r="C63" s="14">
         <v>0.3</v>
       </c>
-      <c r="D63" s="16">
+      <c r="D63" s="14">
         <v>0.3</v>
       </c>
-      <c r="E63" s="16">
+      <c r="E63" s="14">
         <v>0.3</v>
       </c>
-      <c r="F63" s="16">
+      <c r="F63" s="14">
         <v>0.3</v>
       </c>
-      <c r="G63" s="16">
+      <c r="G63" s="14">
         <v>0.3</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="27" t="s">
+      <c r="A64" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="B64" s="15">
+      <c r="B64" s="13">
         <v>563.1</v>
       </c>
-      <c r="C64" s="15">
+      <c r="C64" s="13">
         <v>563.1</v>
       </c>
-      <c r="D64" s="15">
+      <c r="D64" s="13">
         <v>563.1</v>
       </c>
-      <c r="E64" s="15">
+      <c r="E64" s="13">
         <v>563.1</v>
       </c>
-      <c r="F64" s="15">
+      <c r="F64" s="13">
         <v>563.1</v>
       </c>
-      <c r="G64" s="15">
+      <c r="G64" s="13">
         <v>563.1</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="24" t="s">
+      <c r="A65" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="B65" s="17">
+      <c r="B65" s="15">
         <v>-87.8</v>
       </c>
-      <c r="C65" s="28">
+      <c r="C65" s="26">
         <v>-107.4</v>
       </c>
-      <c r="D65" s="28">
+      <c r="D65" s="26">
         <v>-171.7</v>
       </c>
-      <c r="E65" s="28">
+      <c r="E65" s="26">
         <v>-101.4</v>
       </c>
-      <c r="F65" s="28">
+      <c r="F65" s="26">
         <v>-120.1</v>
       </c>
-      <c r="G65" s="28">
+      <c r="G65" s="26">
         <v>-149.19999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="27" t="s">
+      <c r="A66" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="B66" s="17">
+      <c r="B66" s="15">
         <v>-88.6</v>
       </c>
-      <c r="C66" s="28">
+      <c r="C66" s="26">
         <v>-107.3</v>
       </c>
-      <c r="D66" s="28">
+      <c r="D66" s="26">
         <v>-171.3</v>
       </c>
-      <c r="E66" s="28">
+      <c r="E66" s="26">
         <v>-100.9</v>
       </c>
-      <c r="F66" s="28">
+      <c r="F66" s="26">
         <v>-119.4</v>
       </c>
-      <c r="G66" s="28">
+      <c r="G66" s="26">
         <v>-158.69999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="27" t="s">
+      <c r="A67" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="B67" s="16">
+      <c r="B67" s="14">
         <v>0.8</v>
       </c>
-      <c r="C67" s="17">
+      <c r="C67" s="15">
         <v>-0.1</v>
       </c>
-      <c r="D67" s="17">
+      <c r="D67" s="15">
         <v>-0.4</v>
       </c>
-      <c r="E67" s="17">
+      <c r="E67" s="15">
         <v>-0.5</v>
       </c>
-      <c r="F67" s="17">
+      <c r="F67" s="15">
         <v>-0.7</v>
       </c>
-      <c r="G67" s="16">
+      <c r="G67" s="14">
         <v>9.5</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="19" t="s">
+      <c r="A68" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B68" s="15">
+      <c r="B68" s="13">
         <v>475.6</v>
       </c>
-      <c r="C68" s="15">
+      <c r="C68" s="13">
         <v>456</v>
       </c>
-      <c r="D68" s="15">
+      <c r="D68" s="13">
         <v>391.7</v>
       </c>
-      <c r="E68" s="15">
+      <c r="E68" s="13">
         <v>462</v>
       </c>
-      <c r="F68" s="15">
+      <c r="F68" s="13">
         <v>443.3</v>
       </c>
-      <c r="G68" s="15">
+      <c r="G68" s="13">
         <v>414.2</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="12" t="s">
+      <c r="A69" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="21" t="s">
+      <c r="A70" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="B70" s="22">
+      <c r="B70" s="20">
         <v>475.6</v>
       </c>
-      <c r="C70" s="22">
+      <c r="C70" s="20">
         <v>456</v>
       </c>
-      <c r="D70" s="22">
+      <c r="D70" s="20">
         <v>391.7</v>
       </c>
-      <c r="E70" s="22">
+      <c r="E70" s="20">
         <v>462</v>
       </c>
-      <c r="F70" s="22">
+      <c r="F70" s="20">
         <v>443.3</v>
       </c>
-      <c r="G70" s="22">
+      <c r="G70" s="20">
         <v>414.2</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="12" t="s">
+      <c r="A71" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="21" t="s">
+      <c r="A72" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="B72" s="22">
+      <c r="B72" s="20">
         <v>2314.4</v>
       </c>
-      <c r="C72" s="22">
+      <c r="C72" s="20">
         <v>2118.6</v>
       </c>
-      <c r="D72" s="22">
+      <c r="D72" s="20">
         <v>2065.8000000000002</v>
       </c>
-      <c r="E72" s="22">
+      <c r="E72" s="20">
         <v>1884.6</v>
       </c>
-      <c r="F72" s="22">
+      <c r="F72" s="20">
         <v>1885.3</v>
       </c>
-      <c r="G72" s="22">
+      <c r="G72" s="20">
         <v>1903.8</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="12" t="s">
+      <c r="A73" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
     </row>
     <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="B74" s="16">
+      <c r="B74" s="14">
         <v>0.32</v>
       </c>
-      <c r="C74" s="16">
+      <c r="C74" s="14">
         <v>0.32</v>
       </c>
-      <c r="D74" s="16">
+      <c r="D74" s="14">
         <v>0.32</v>
       </c>
-      <c r="E74" s="16">
+      <c r="E74" s="14">
         <v>0.32</v>
       </c>
-      <c r="F74" s="16">
+      <c r="F74" s="14">
         <v>0.32</v>
       </c>
-      <c r="G74" s="16">
+      <c r="G74" s="14">
         <v>0.32</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="19" t="s">
+      <c r="A75" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B75" s="16">
+      <c r="B75" s="14">
         <v>0.32</v>
       </c>
-      <c r="C75" s="16">
+      <c r="C75" s="14">
         <v>0.32</v>
       </c>
-      <c r="D75" s="16">
+      <c r="D75" s="14">
         <v>0.32</v>
       </c>
-      <c r="E75" s="16">
+      <c r="E75" s="14">
         <v>0.32</v>
       </c>
-      <c r="F75" s="16">
+      <c r="F75" s="14">
         <v>0.32</v>
       </c>
-      <c r="G75" s="16">
+      <c r="G75" s="14">
         <v>0.32</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="19" t="s">
+      <c r="A76" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="B76" s="20">
+      <c r="B76" s="18">
         <v>0</v>
       </c>
-      <c r="C76" s="20">
+      <c r="C76" s="18">
         <v>0</v>
       </c>
-      <c r="D76" s="20">
+      <c r="D76" s="18">
         <v>0</v>
       </c>
-      <c r="E76" s="20">
+      <c r="E76" s="18">
         <v>0</v>
       </c>
-      <c r="F76" s="20">
+      <c r="F76" s="18">
         <v>0</v>
       </c>
-      <c r="G76" s="20">
+      <c r="G76" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="B77" s="16">
+      <c r="B77" s="14">
         <v>0.5</v>
       </c>
-      <c r="C77" s="16">
+      <c r="C77" s="14">
         <v>0.5</v>
       </c>
-      <c r="D77" s="16">
+      <c r="D77" s="14">
         <v>0.5</v>
       </c>
-      <c r="E77" s="16">
+      <c r="E77" s="14">
         <v>0.5</v>
       </c>
-      <c r="F77" s="16">
+      <c r="F77" s="14">
         <v>0.5</v>
       </c>
-      <c r="G77" s="16">
+      <c r="G77" s="14">
         <v>0.5</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="B78" s="16">
+      <c r="B78" s="14">
         <v>0.32</v>
       </c>
-      <c r="C78" s="16">
+      <c r="C78" s="14">
         <v>0.32</v>
       </c>
-      <c r="D78" s="16">
+      <c r="D78" s="14">
         <v>0.32</v>
       </c>
-      <c r="E78" s="16">
+      <c r="E78" s="14">
         <v>0.32</v>
       </c>
-      <c r="F78" s="16">
+      <c r="F78" s="14">
         <v>0.32</v>
       </c>
-      <c r="G78" s="16">
+      <c r="G78" s="14">
         <v>0.32</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="19" t="s">
+      <c r="A79" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="B79" s="16">
+      <c r="B79" s="14">
         <v>0.32</v>
       </c>
-      <c r="C79" s="16">
+      <c r="C79" s="14">
         <v>0.32</v>
       </c>
-      <c r="D79" s="16">
+      <c r="D79" s="14">
         <v>0.32</v>
       </c>
-      <c r="E79" s="16">
+      <c r="E79" s="14">
         <v>0.32</v>
       </c>
-      <c r="F79" s="16">
+      <c r="F79" s="14">
         <v>0.32</v>
       </c>
-      <c r="G79" s="16">
+      <c r="G79" s="14">
         <v>0.32</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="19" t="s">
+      <c r="A80" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="B80" s="20">
+      <c r="B80" s="18">
         <v>0</v>
       </c>
-      <c r="C80" s="20">
+      <c r="C80" s="18">
         <v>0</v>
       </c>
-      <c r="D80" s="20">
+      <c r="D80" s="18">
         <v>0</v>
       </c>
-      <c r="E80" s="20">
+      <c r="E80" s="18">
         <v>0</v>
       </c>
-      <c r="F80" s="20">
+      <c r="F80" s="18">
         <v>0</v>
       </c>
-      <c r="G80" s="20">
+      <c r="G80" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="12" t="s">
+      <c r="A81" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
     </row>
     <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="B82" s="16">
+      <c r="B82" s="14">
         <v>1</v>
       </c>
-      <c r="C82" s="16">
+      <c r="C82" s="14">
         <v>1</v>
       </c>
-      <c r="D82" s="16">
+      <c r="D82" s="14">
         <v>1</v>
       </c>
-      <c r="E82" s="16">
+      <c r="E82" s="14">
         <v>1</v>
       </c>
-      <c r="F82" s="16">
+      <c r="F82" s="14">
         <v>1</v>
       </c>
-      <c r="G82" s="16">
+      <c r="G82" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="12" t="s">
+      <c r="A83" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
     </row>
     <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="B84" s="16">
+      <c r="B84" s="14">
         <v>89.3</v>
       </c>
-      <c r="C84" s="16">
+      <c r="C84" s="14">
         <v>91.6</v>
       </c>
-      <c r="D84" s="16">
+      <c r="D84" s="14">
         <v>93.6</v>
       </c>
-      <c r="E84" s="16">
+      <c r="E84" s="14">
         <v>95.8</v>
       </c>
-      <c r="F84" s="16">
+      <c r="F84" s="14">
         <v>95.7</v>
       </c>
-      <c r="G84" s="16">
+      <c r="G84" s="14">
         <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="14" t="s">
+      <c r="A85" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="B85" s="16">
+      <c r="B85" s="14">
         <v>91.5</v>
       </c>
-      <c r="C85" s="16">
+      <c r="C85" s="14">
         <v>93.6</v>
       </c>
-      <c r="D85" s="16">
+      <c r="D85" s="14">
         <v>95.3</v>
       </c>
-      <c r="E85" s="15">
+      <c r="E85" s="13">
         <v>109.2</v>
       </c>
-      <c r="F85" s="16">
+      <c r="F85" s="14">
         <v>97.6</v>
       </c>
-      <c r="G85" s="16">
+      <c r="G85" s="14">
         <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="12" t="s">
+      <c r="A86" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
     </row>
     <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="B87" s="16">
+      <c r="B87" s="14">
         <v>36.799999999999997</v>
       </c>
-      <c r="C87" s="16">
+      <c r="C87" s="14">
         <v>36.799999999999997</v>
       </c>
-      <c r="D87" s="16">
+      <c r="D87" s="14">
         <v>36.799999999999997</v>
       </c>
-      <c r="E87" s="16">
+      <c r="E87" s="14">
         <v>36.799999999999997</v>
       </c>
-      <c r="F87" s="16">
+      <c r="F87" s="14">
         <v>36.799999999999997</v>
       </c>
-      <c r="G87" s="16">
+      <c r="G87" s="14">
         <v>46.4</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="14" t="s">
+      <c r="A88" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="B88" s="15">
+      <c r="B88" s="13">
         <v>152.4</v>
       </c>
-      <c r="C88" s="15">
+      <c r="C88" s="13">
         <v>1160.3</v>
       </c>
-      <c r="D88" s="15">
+      <c r="D88" s="13">
         <v>988.4</v>
       </c>
-      <c r="E88" s="15">
+      <c r="E88" s="13">
         <v>786.3</v>
       </c>
-      <c r="F88" s="15">
+      <c r="F88" s="13">
         <v>690.1</v>
       </c>
-      <c r="G88" s="15">
+      <c r="G88" s="13">
         <v>772.5</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="14" t="s">
+      <c r="A89" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="B89" s="15">
+      <c r="B89" s="13">
         <v>140.69999999999999</v>
       </c>
-      <c r="C89" s="15">
+      <c r="C89" s="13">
         <v>110.3</v>
       </c>
-      <c r="D89" s="15">
+      <c r="D89" s="13">
         <v>132.5</v>
       </c>
-      <c r="E89" s="15">
+      <c r="E89" s="13">
         <v>110.7</v>
       </c>
-      <c r="F89" s="15">
+      <c r="F89" s="13">
         <v>115.2</v>
       </c>
-      <c r="G89" s="15">
+      <c r="G89" s="13">
         <v>122.9</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="14" t="s">
+      <c r="A90" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="B90" s="15">
+      <c r="B90" s="13">
         <v>1240.4000000000001</v>
       </c>
-      <c r="C90" s="15">
+      <c r="C90" s="13">
         <v>1147.9000000000001</v>
       </c>
-      <c r="D90" s="15">
+      <c r="D90" s="13">
         <v>1144.5</v>
       </c>
-      <c r="E90" s="15">
+      <c r="E90" s="13">
         <v>1038</v>
       </c>
-      <c r="F90" s="15">
+      <c r="F90" s="13">
         <v>1081</v>
       </c>
-      <c r="G90" s="15">
+      <c r="G90" s="13">
         <v>1109.7</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="19" t="s">
+      <c r="A91" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="B91" s="15">
+      <c r="B91" s="13">
         <v>1240.4000000000001</v>
       </c>
-      <c r="C91" s="15">
+      <c r="C91" s="13">
         <v>1147.9000000000001</v>
       </c>
-      <c r="D91" s="15">
+      <c r="D91" s="13">
         <v>1144.5</v>
       </c>
-      <c r="E91" s="15">
+      <c r="E91" s="13">
         <v>1038</v>
       </c>
-      <c r="F91" s="15">
+      <c r="F91" s="13">
         <v>1081</v>
       </c>
-      <c r="G91" s="15">
+      <c r="G91" s="13">
         <v>1109.7</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="12" t="s">
+      <c r="A92" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="B92" s="13"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="13"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
     </row>
     <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="14" t="s">
+      <c r="A93" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="B93" s="28">
+      <c r="B93" s="26">
         <v>-1198.8</v>
       </c>
-      <c r="C93" s="17">
+      <c r="C93" s="15">
         <v>-27.1</v>
       </c>
-      <c r="D93" s="17">
+      <c r="D93" s="15">
         <v>-26.5</v>
       </c>
-      <c r="E93" s="17">
+      <c r="E93" s="15">
         <v>-26.9</v>
       </c>
-      <c r="F93" s="17">
+      <c r="F93" s="15">
         <v>-49.1</v>
       </c>
-      <c r="G93" s="16">
+      <c r="G93" s="14">
         <v>19.5</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="12" t="s">
+      <c r="A94" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B94" s="13"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
     </row>
     <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="14" t="s">
+      <c r="A95" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="B95" s="28">
+      <c r="B95" s="26">
         <v>-410.1</v>
       </c>
-      <c r="C95" s="15">
+      <c r="C95" s="13">
         <v>637.79999999999995</v>
       </c>
-      <c r="D95" s="15">
+      <c r="D95" s="13">
         <v>517.20000000000005</v>
       </c>
-      <c r="E95" s="15">
+      <c r="E95" s="13">
         <v>389.7</v>
       </c>
-      <c r="F95" s="15">
+      <c r="F95" s="13">
         <v>267.39999999999998</v>
       </c>
-      <c r="G95" s="15">
+      <c r="G95" s="13">
         <v>335.2</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="14" t="s">
+      <c r="A96" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="B96" s="15">
+      <c r="B96" s="13">
         <v>1024.0999999999999</v>
       </c>
-      <c r="C96" s="15">
+      <c r="C96" s="13">
         <v>1997.9</v>
       </c>
-      <c r="D96" s="15">
+      <c r="D96" s="13">
         <v>1944</v>
       </c>
-      <c r="E96" s="15">
+      <c r="E96" s="13">
         <v>1733.1</v>
       </c>
-      <c r="F96" s="15">
+      <c r="F96" s="13">
         <v>1722.7</v>
       </c>
-      <c r="G96" s="15">
+      <c r="G96" s="13">
         <v>1807.4</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="14" t="s">
+      <c r="A97" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="B97" s="15">
+      <c r="B97" s="13">
         <v>1290.3</v>
       </c>
-      <c r="C97" s="15">
+      <c r="C97" s="13">
         <v>120.7</v>
       </c>
-      <c r="D97" s="15">
+      <c r="D97" s="13">
         <v>121.8</v>
       </c>
-      <c r="E97" s="15">
+      <c r="E97" s="13">
         <v>136.1</v>
       </c>
-      <c r="F97" s="15">
+      <c r="F97" s="13">
         <v>146.69999999999999</v>
       </c>
-      <c r="G97" s="16">
+      <c r="G97" s="14">
         <v>78.5</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="14" t="s">
+      <c r="A98" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B98" s="15">
+      <c r="B98" s="13">
         <v>1290.3</v>
       </c>
-      <c r="C98" s="15">
+      <c r="C98" s="13">
         <v>120.7</v>
       </c>
-      <c r="D98" s="15">
+      <c r="D98" s="13">
         <v>121.8</v>
       </c>
-      <c r="E98" s="15">
+      <c r="E98" s="13">
         <v>136.1</v>
       </c>
-      <c r="F98" s="15">
+      <c r="F98" s="13">
         <v>146.69999999999999</v>
       </c>
-      <c r="G98" s="16">
+      <c r="G98" s="14">
         <v>78.5</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="14" t="s">
+      <c r="A99" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="B99" s="16">
+      <c r="B99" s="14">
         <v>91.5</v>
       </c>
-      <c r="C99" s="16">
+      <c r="C99" s="14">
         <v>93.6</v>
       </c>
-      <c r="D99" s="16">
+      <c r="D99" s="14">
         <v>95.3</v>
       </c>
-      <c r="E99" s="15">
+      <c r="E99" s="13">
         <v>109.2</v>
       </c>
-      <c r="F99" s="16">
+      <c r="F99" s="14">
         <v>97.6</v>
       </c>
-      <c r="G99" s="16">
+      <c r="G99" s="14">
         <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="14" t="s">
+      <c r="A100" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="B100" s="16">
+      <c r="B100" s="14">
         <v>36.799999999999997</v>
       </c>
-      <c r="C100" s="16">
+      <c r="C100" s="14">
         <v>36.799999999999997</v>
       </c>
-      <c r="D100" s="16">
+      <c r="D100" s="14">
         <v>36.799999999999997</v>
       </c>
-      <c r="E100" s="16">
+      <c r="E100" s="14">
         <v>36.799999999999997</v>
       </c>
-      <c r="F100" s="16">
+      <c r="F100" s="14">
         <v>36.799999999999997</v>
       </c>
-      <c r="G100" s="16">
+      <c r="G100" s="14">
         <v>46.4</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="14" t="s">
+      <c r="A101" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="B101" s="28">
+      <c r="B101" s="26">
         <v>-723.2</v>
       </c>
-      <c r="C101" s="15">
+      <c r="C101" s="13">
         <v>428.9</v>
       </c>
-      <c r="D101" s="15">
+      <c r="D101" s="13">
         <v>365.2</v>
       </c>
-      <c r="E101" s="15">
+      <c r="E101" s="13">
         <v>435.1</v>
       </c>
-      <c r="F101" s="15">
+      <c r="F101" s="13">
         <v>394.2</v>
       </c>
-      <c r="G101" s="15">
+      <c r="G101" s="13">
         <v>433.7</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="14" t="s">
+      <c r="A102" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="B102" s="28">
+      <c r="B102" s="26">
         <v>-723.2</v>
       </c>
-      <c r="C102" s="15">
+      <c r="C102" s="13">
         <v>428.9</v>
       </c>
-      <c r="D102" s="15">
+      <c r="D102" s="13">
         <v>365.2</v>
       </c>
-      <c r="E102" s="15">
+      <c r="E102" s="13">
         <v>435.1</v>
       </c>
-      <c r="F102" s="15">
+      <c r="F102" s="13">
         <v>394.2</v>
       </c>
-      <c r="G102" s="15">
+      <c r="G102" s="13">
         <v>433.7</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="14" t="s">
+      <c r="A103" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="B103" s="15">
+      <c r="B103" s="13">
         <v>506.9</v>
       </c>
-      <c r="C103" s="15">
+      <c r="C103" s="13">
         <v>421.1</v>
       </c>
-      <c r="D103" s="15">
+      <c r="D103" s="13">
         <v>434.3</v>
       </c>
-      <c r="E103" s="15">
+      <c r="E103" s="13">
         <v>275.39999999999998</v>
       </c>
-      <c r="F103" s="15">
+      <c r="F103" s="13">
         <v>263.39999999999998</v>
       </c>
-      <c r="G103" s="15">
+      <c r="G103" s="13">
         <v>281.89999999999998</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="14" t="s">
+      <c r="A104" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="B104" s="15">
+      <c r="B104" s="13">
         <v>475.6</v>
       </c>
-      <c r="C104" s="15">
+      <c r="C104" s="13">
         <v>456</v>
       </c>
-      <c r="D104" s="15">
+      <c r="D104" s="13">
         <v>391.7</v>
       </c>
-      <c r="E104" s="15">
+      <c r="E104" s="13">
         <v>462</v>
       </c>
-      <c r="F104" s="15">
+      <c r="F104" s="13">
         <v>443.3</v>
       </c>
-      <c r="G104" s="15">
+      <c r="G104" s="13">
         <v>414.2</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="14" t="s">
+      <c r="A105" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="B105" s="15">
+      <c r="B105" s="13">
         <v>395.9</v>
       </c>
-      <c r="C105" s="15">
+      <c r="C105" s="13">
         <v>377.5</v>
       </c>
-      <c r="D105" s="15">
+      <c r="D105" s="13">
         <v>301.8</v>
       </c>
-      <c r="E105" s="15">
+      <c r="E105" s="13">
         <v>354.7</v>
       </c>
-      <c r="F105" s="15">
+      <c r="F105" s="13">
         <v>327.60000000000002</v>
       </c>
-      <c r="G105" s="15">
+      <c r="G105" s="13">
         <v>285.60000000000002</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="14" t="s">
+      <c r="A106" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="B106" s="15">
+      <c r="B106" s="13">
         <v>395.9</v>
       </c>
-      <c r="C106" s="15">
+      <c r="C106" s="13">
         <v>377.5</v>
       </c>
-      <c r="D106" s="15">
+      <c r="D106" s="13">
         <v>301.8</v>
       </c>
-      <c r="E106" s="15">
+      <c r="E106" s="13">
         <v>354.7</v>
       </c>
-      <c r="F106" s="15">
+      <c r="F106" s="13">
         <v>327.60000000000002</v>
       </c>
-      <c r="G106" s="15">
+      <c r="G106" s="13">
         <v>285.60000000000002</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="14" t="s">
+      <c r="A107" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="B107" s="15">
+      <c r="B107" s="13">
         <v>567.1</v>
       </c>
-      <c r="C107" s="15">
+      <c r="C107" s="13">
         <v>549.6</v>
       </c>
-      <c r="D107" s="15">
+      <c r="D107" s="13">
         <v>487</v>
       </c>
-      <c r="E107" s="15">
+      <c r="E107" s="13">
         <v>571.20000000000005</v>
       </c>
-      <c r="F107" s="15">
+      <c r="F107" s="13">
         <v>540.9</v>
       </c>
-      <c r="G107" s="15">
+      <c r="G107" s="13">
         <v>512.20000000000005</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="14" t="s">
+      <c r="A108" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="B108" s="15">
+      <c r="B108" s="13">
         <v>567.1</v>
       </c>
-      <c r="C108" s="15">
+      <c r="C108" s="13">
         <v>549.6</v>
       </c>
-      <c r="D108" s="15">
+      <c r="D108" s="13">
         <v>487</v>
       </c>
-      <c r="E108" s="15">
+      <c r="E108" s="13">
         <v>571.20000000000005</v>
       </c>
-      <c r="F108" s="15">
+      <c r="F108" s="13">
         <v>540.9</v>
       </c>
-      <c r="G108" s="15">
+      <c r="G108" s="13">
         <v>512.20000000000005</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="14" t="s">
+      <c r="A109" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="B109" s="15">
+      <c r="B109" s="13">
         <v>1333.1</v>
       </c>
-      <c r="C109" s="15">
+      <c r="C109" s="13">
         <v>1218.5999999999999</v>
       </c>
-      <c r="D109" s="15">
+      <c r="D109" s="13">
         <v>1181.2</v>
       </c>
-      <c r="E109" s="15">
+      <c r="E109" s="13">
         <v>1092.3</v>
       </c>
-      <c r="F109" s="15">
+      <c r="F109" s="13">
         <v>1021.7</v>
       </c>
-      <c r="G109" s="15">
+      <c r="G109" s="13">
         <v>1005.6</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="14" t="s">
+      <c r="A110" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="B110" s="15">
+      <c r="B110" s="13">
         <v>452.9</v>
       </c>
-      <c r="C110" s="15">
+      <c r="C110" s="13">
         <v>460.1</v>
       </c>
-      <c r="D110" s="15">
+      <c r="D110" s="13">
         <v>542.20000000000005</v>
       </c>
-      <c r="E110" s="15">
+      <c r="E110" s="13">
         <v>551.1</v>
       </c>
-      <c r="F110" s="15">
+      <c r="F110" s="13">
         <v>591.70000000000005</v>
       </c>
-      <c r="G110" s="15">
+      <c r="G110" s="13">
         <v>574</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="14" t="s">
+      <c r="A111" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="B111" s="15">
+      <c r="B111" s="13">
         <v>880.2</v>
       </c>
-      <c r="C111" s="15">
+      <c r="C111" s="13">
         <v>758.5</v>
       </c>
-      <c r="D111" s="15">
+      <c r="D111" s="13">
         <v>639</v>
       </c>
-      <c r="E111" s="15">
+      <c r="E111" s="13">
         <v>525.79999999999995</v>
       </c>
-      <c r="F111" s="15">
+      <c r="F111" s="13">
         <v>414.1</v>
       </c>
-      <c r="G111" s="15">
+      <c r="G111" s="13">
         <v>413.7</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="14" t="s">
+      <c r="A112" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="B112" s="28">
+      <c r="B112" s="26">
         <v>-410.1</v>
       </c>
-      <c r="C112" s="15">
+      <c r="C112" s="13">
         <v>637.79999999999995</v>
       </c>
-      <c r="D112" s="15">
+      <c r="D112" s="13">
         <v>517.20000000000005</v>
       </c>
-      <c r="E112" s="15">
+      <c r="E112" s="13">
         <v>389.7</v>
       </c>
-      <c r="F112" s="15">
+      <c r="F112" s="13">
         <v>267.39999999999998</v>
       </c>
-      <c r="G112" s="15">
+      <c r="G112" s="13">
         <v>335.2</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="14" t="s">
+      <c r="A113" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="B113" s="15">
+      <c r="B113" s="13">
         <v>885</v>
       </c>
-      <c r="C113" s="15">
+      <c r="C113" s="13">
         <v>763.7</v>
       </c>
-      <c r="D113" s="15">
+      <c r="D113" s="13">
         <v>649.4</v>
       </c>
-      <c r="E113" s="15">
+      <c r="E113" s="13">
         <v>531.5</v>
       </c>
-      <c r="F113" s="15">
+      <c r="F113" s="13">
         <v>421.3</v>
       </c>
-      <c r="G113" s="15">
+      <c r="G113" s="13">
         <v>423.9</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="14" t="s">
+      <c r="A114" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="B114" s="15">
+      <c r="B114" s="13">
         <v>474.8</v>
       </c>
-      <c r="C114" s="15">
+      <c r="C114" s="13">
         <v>456.1</v>
       </c>
-      <c r="D114" s="15">
+      <c r="D114" s="13">
         <v>392.1</v>
       </c>
-      <c r="E114" s="15">
+      <c r="E114" s="13">
         <v>462.5</v>
       </c>
-      <c r="F114" s="15">
+      <c r="F114" s="13">
         <v>444</v>
       </c>
-      <c r="G114" s="15">
+      <c r="G114" s="13">
         <v>404.7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E11"/>
+    <mergeCell ref="F11"/>
     <mergeCell ref="G11"/>
     <mergeCell ref="B12"/>
     <mergeCell ref="B13"/>
@@ -5910,8 +5912,6 @@
     <mergeCell ref="B11"/>
     <mergeCell ref="C11"/>
     <mergeCell ref="D11"/>
-    <mergeCell ref="E11"/>
-    <mergeCell ref="F11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.75"/>
   <pageSetup fitToHeight="0"/>
@@ -5925,8 +5925,8 @@
   </sheetPr>
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -5936,1289 +5936,1294 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>44970.849989328701</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="28" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="27">
         <v>42126</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="27">
         <v>41759</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="27">
         <v>41394</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="27">
         <v>41027</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="27">
         <v>40661</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="13">
         <v>4314</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="13">
         <v>4078.3</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="13">
         <v>3997.9</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="13">
         <v>3743.7</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="13">
         <v>3858</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="13">
         <v>4314</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="13">
         <v>4078.3</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="13">
         <v>3997.9</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="13">
         <v>3743.7</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="13">
         <v>3858</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="20">
         <v>4314</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="20">
         <v>4078.3</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="20">
         <v>3997.9</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="20">
         <v>3743.7</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="20">
         <v>3858</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="20">
         <v>4314</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="20">
         <v>4078.3</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="20">
         <v>3997.9</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="20">
         <v>3743.7</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="20">
         <v>3858</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="13">
         <v>4174.6000000000004</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="13">
         <v>3981.5</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="13">
         <v>3942.8</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="13">
         <v>3700.7</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="13">
         <v>3855.7</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="13">
         <v>4174.6000000000004</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="13">
         <v>3981.5</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="13">
         <v>3942.8</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="13">
         <v>3700.7</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="13">
         <v>3855.7</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="13">
         <v>4174.6000000000004</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="13">
         <v>3981.5</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="13">
         <v>3942.8</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="13">
         <v>3700.7</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="13">
         <v>3855.7</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26" s="20">
         <v>139.4</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="21">
         <v>96.8</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="21">
         <v>55.1</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="21">
         <v>43</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="21">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="15">
         <v>-22.6</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="15">
         <v>-2.7</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="14">
         <v>10.6</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="14">
         <v>9</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="14">
         <v>8.6</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="14">
         <v>22.6</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="14">
         <v>2.7</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="15">
         <v>-10.6</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="14">
         <v>57.7</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="14">
         <v>56.5</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="14">
         <v>15.6</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="14">
         <v>22.8</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="14">
         <v>31.9</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="14">
         <v>1.8</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="14">
         <v>2.5</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="14">
         <v>38.200000000000003</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="14">
         <v>25.5</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="14">
         <v>21.3</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="14">
         <v>59.5</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="14">
         <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="16">
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="14">
         <v>66.7</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="14">
         <v>65.099999999999994</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="16">
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="14">
         <v>66.7</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F33" s="14">
         <v>65.099999999999994</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="16">
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="14">
         <v>1.7</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="14">
         <v>7.5</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="B35" s="15">
+      <c r="B35" s="13">
         <v>116.8</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="14">
         <v>94.1</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="14">
         <v>65.7</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="14">
         <v>53.7</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="14">
         <v>18.399999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="B37" s="22">
+      <c r="B37" s="20">
         <v>116.8</v>
       </c>
-      <c r="C37" s="23">
+      <c r="C37" s="21">
         <v>94.1</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D37" s="21">
         <v>56.5</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E37" s="21">
         <v>53.7</v>
       </c>
-      <c r="F37" s="23">
+      <c r="F37" s="21">
         <v>18.399999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B39" s="14">
         <v>12.2</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="14">
         <v>23.2</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39" s="14">
         <v>13.4</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E39" s="14">
         <v>6.3</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F39" s="14">
         <v>0.4</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B40" s="14">
         <v>12.2</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="14">
         <v>23.2</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D40" s="14">
         <v>13.4</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E40" s="14">
         <v>6.3</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F40" s="14">
         <v>0.4</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="B42" s="15">
+      <c r="B42" s="13">
         <v>104.6</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="14">
         <v>70.900000000000006</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D42" s="14">
         <v>43.1</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42" s="14">
         <v>47.4</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F42" s="14">
         <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="22">
+      <c r="B44" s="20">
         <v>104.6</v>
       </c>
-      <c r="C44" s="23">
+      <c r="C44" s="21">
         <v>70.900000000000006</v>
       </c>
-      <c r="D44" s="23">
+      <c r="D44" s="21">
         <v>43.1</v>
       </c>
-      <c r="E44" s="23">
+      <c r="E44" s="21">
         <v>47.4</v>
       </c>
-      <c r="F44" s="23">
+      <c r="F44" s="21">
         <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="17">
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="15">
         <v>-9.1999999999999993</v>
       </c>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="17">
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="15">
         <v>-9.1999999999999993</v>
       </c>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="17">
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="15">
         <v>-9.1999999999999993</v>
       </c>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="B48" s="15">
+      <c r="B48" s="13">
         <v>104.6</v>
       </c>
-      <c r="C48" s="16">
+      <c r="C48" s="14">
         <v>70.900000000000006</v>
       </c>
-      <c r="D48" s="16">
+      <c r="D48" s="14">
         <v>33.9</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E48" s="14">
         <v>47.4</v>
       </c>
-      <c r="F48" s="16">
+      <c r="F48" s="14">
         <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="B49" s="15">
+      <c r="B49" s="13">
         <v>104.6</v>
       </c>
-      <c r="C49" s="16">
+      <c r="C49" s="14">
         <v>70.900000000000006</v>
       </c>
-      <c r="D49" s="16">
+      <c r="D49" s="14">
         <v>33.9</v>
       </c>
-      <c r="E49" s="16">
+      <c r="E49" s="14">
         <v>47.4</v>
       </c>
-      <c r="F49" s="16">
+      <c r="F49" s="14">
         <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="B51" s="22">
+      <c r="B51" s="20">
         <v>104.6</v>
       </c>
-      <c r="C51" s="23">
+      <c r="C51" s="21">
         <v>70.900000000000006</v>
       </c>
-      <c r="D51" s="23">
+      <c r="D51" s="21">
         <v>33.9</v>
       </c>
-      <c r="E51" s="23">
+      <c r="E51" s="21">
         <v>47.4</v>
       </c>
-      <c r="F51" s="23">
+      <c r="F51" s="21">
         <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="B53" s="15">
+      <c r="B53" s="13">
         <v>104.6</v>
       </c>
-      <c r="C53" s="16">
+      <c r="C53" s="14">
         <v>70.900000000000006</v>
       </c>
-      <c r="D53" s="16">
+      <c r="D53" s="14">
         <v>33.9</v>
       </c>
-      <c r="E53" s="16">
+      <c r="E53" s="14">
         <v>47.4</v>
       </c>
-      <c r="F53" s="16">
+      <c r="F53" s="14">
         <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="B54" s="15">
+      <c r="B54" s="13">
         <v>104.6</v>
       </c>
-      <c r="C54" s="16">
+      <c r="C54" s="14">
         <v>70.900000000000006</v>
       </c>
-      <c r="D54" s="16">
+      <c r="D54" s="14">
         <v>43.1</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E54" s="14">
         <v>47.4</v>
       </c>
-      <c r="F54" s="16">
+      <c r="F54" s="14">
         <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="B56" s="15">
+      <c r="B56" s="13">
         <v>104.6</v>
       </c>
-      <c r="C56" s="16">
+      <c r="C56" s="14">
         <v>70.900000000000006</v>
       </c>
-      <c r="D56" s="16">
+      <c r="D56" s="14">
         <v>33.9</v>
       </c>
-      <c r="E56" s="16">
+      <c r="E56" s="14">
         <v>47.4</v>
       </c>
-      <c r="F56" s="16">
+      <c r="F56" s="14">
         <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="B57" s="15">
+      <c r="B57" s="13">
         <v>104.6</v>
       </c>
-      <c r="C57" s="16">
+      <c r="C57" s="14">
         <v>70.900000000000006</v>
       </c>
-      <c r="D57" s="16">
+      <c r="D57" s="14">
         <v>43.1</v>
       </c>
-      <c r="E57" s="16">
+      <c r="E57" s="14">
         <v>47.4</v>
       </c>
-      <c r="F57" s="16">
+      <c r="F57" s="14">
         <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
     </row>
     <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="B59" s="20">
+      <c r="B59" s="18">
         <v>0</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="18">
         <v>0</v>
       </c>
-      <c r="D59" s="20">
+      <c r="D59" s="18">
         <v>0</v>
       </c>
-      <c r="E59" s="20">
+      <c r="E59" s="18">
         <v>0</v>
       </c>
-      <c r="F59" s="20">
+      <c r="F59" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="B60" s="20">
+      <c r="B60" s="18">
         <v>0</v>
       </c>
-      <c r="C60" s="20">
+      <c r="C60" s="18">
         <v>0</v>
       </c>
-      <c r="D60" s="20">
+      <c r="D60" s="18">
         <v>0</v>
       </c>
-      <c r="E60" s="20">
+      <c r="E60" s="18">
         <v>0</v>
       </c>
-      <c r="F60" s="20">
+      <c r="F60" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="B62" s="15">
+      <c r="B62" s="13">
         <v>139.4</v>
       </c>
-      <c r="C62" s="16">
+      <c r="C62" s="14">
         <v>96.8</v>
       </c>
-      <c r="D62" s="16">
+      <c r="D62" s="14">
         <v>55.1</v>
       </c>
-      <c r="E62" s="16">
+      <c r="E62" s="14">
         <v>43</v>
       </c>
-      <c r="F62" s="16">
+      <c r="F62" s="14">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B63" s="15">
+      <c r="B63" s="13">
         <v>215.2</v>
       </c>
-      <c r="C63" s="15">
+      <c r="C63" s="13">
         <v>174.9</v>
       </c>
-      <c r="D63" s="15">
+      <c r="D63" s="13">
         <v>133.19999999999999</v>
       </c>
-      <c r="E63" s="15">
+      <c r="E63" s="13">
         <v>118.1</v>
       </c>
-      <c r="F63" s="16">
+      <c r="F63" s="14">
         <v>76.3</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="B65" s="16">
+      <c r="B65" s="14">
         <v>75.8</v>
       </c>
-      <c r="C65" s="16">
+      <c r="C65" s="14">
         <v>78.099999999999994</v>
       </c>
-      <c r="D65" s="16">
+      <c r="D65" s="14">
         <v>78.099999999999994</v>
       </c>
-      <c r="E65" s="16">
+      <c r="E65" s="14">
         <v>75.099999999999994</v>
       </c>
-      <c r="F65" s="16">
+      <c r="F65" s="14">
         <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="19" t="s">
+      <c r="A66" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="B66" s="16">
+      <c r="B66" s="14">
         <v>69.7</v>
       </c>
-      <c r="C66" s="16">
+      <c r="C66" s="14">
         <v>70.5</v>
       </c>
-      <c r="D66" s="16">
+      <c r="D66" s="14">
         <v>70.5</v>
       </c>
-      <c r="E66" s="16">
+      <c r="E66" s="14">
         <v>64.8</v>
       </c>
-      <c r="F66" s="16">
+      <c r="F66" s="14">
         <v>53.6</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="B67" s="16">
+      <c r="B67" s="14">
         <v>6.1</v>
       </c>
-      <c r="C67" s="16">
+      <c r="C67" s="14">
         <v>7.6</v>
       </c>
-      <c r="D67" s="16">
+      <c r="D67" s="14">
         <v>7.6</v>
       </c>
-      <c r="E67" s="16">
+      <c r="E67" s="14">
         <v>10.3</v>
       </c>
-      <c r="F67" s="16">
+      <c r="F67" s="14">
         <v>20.399999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="12" t="s">
+      <c r="A68" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
     </row>
     <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="B69" s="16">
+      <c r="B69" s="14">
         <v>75.8</v>
       </c>
-      <c r="C69" s="16">
+      <c r="C69" s="14">
         <v>78.099999999999994</v>
       </c>
-      <c r="D69" s="16">
+      <c r="D69" s="14">
         <v>78.099999999999994</v>
       </c>
-      <c r="E69" s="16">
+      <c r="E69" s="14">
         <v>75.099999999999994</v>
       </c>
-      <c r="F69" s="16">
+      <c r="F69" s="14">
         <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="19" t="s">
+      <c r="A70" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="B70" s="16">
+      <c r="B70" s="14">
         <v>69.7</v>
       </c>
-      <c r="C70" s="16">
+      <c r="C70" s="14">
         <v>70.5</v>
       </c>
-      <c r="D70" s="16">
+      <c r="D70" s="14">
         <v>70.5</v>
       </c>
-      <c r="E70" s="16">
+      <c r="E70" s="14">
         <v>64.8</v>
       </c>
-      <c r="F70" s="16">
+      <c r="F70" s="14">
         <v>53.6</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="19" t="s">
+      <c r="A71" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="B71" s="16">
+      <c r="B71" s="14">
         <v>6.1</v>
       </c>
-      <c r="C71" s="16">
+      <c r="C71" s="14">
         <v>7.6</v>
       </c>
-      <c r="D71" s="16">
+      <c r="D71" s="14">
         <v>7.6</v>
       </c>
-      <c r="E71" s="16">
+      <c r="E71" s="14">
         <v>10.3</v>
       </c>
-      <c r="F71" s="16">
+      <c r="F71" s="14">
         <v>20.399999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="12" t="s">
+      <c r="A72" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
     </row>
     <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="B73" s="15">
+      <c r="B73" s="13">
         <v>104.6</v>
       </c>
-      <c r="C73" s="16">
+      <c r="C73" s="14">
         <v>70.900000000000006</v>
       </c>
-      <c r="D73" s="16">
+      <c r="D73" s="14">
         <v>43.1</v>
       </c>
-      <c r="E73" s="16">
+      <c r="E73" s="14">
         <v>47.4</v>
       </c>
-      <c r="F73" s="16">
+      <c r="F73" s="14">
         <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="B74" s="15">
+      <c r="B74" s="13">
         <v>104.6</v>
       </c>
-      <c r="C74" s="16">
+      <c r="C74" s="14">
         <v>70.900000000000006</v>
       </c>
-      <c r="D74" s="16">
+      <c r="D74" s="14">
         <v>43.1</v>
       </c>
-      <c r="E74" s="16">
+      <c r="E74" s="14">
         <v>47.4</v>
       </c>
-      <c r="F74" s="16">
+      <c r="F74" s="14">
         <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="B75" s="15">
+      <c r="B75" s="13">
         <v>104.6</v>
       </c>
-      <c r="C75" s="16">
+      <c r="C75" s="14">
         <v>70.900000000000006</v>
       </c>
-      <c r="D75" s="16">
+      <c r="D75" s="14">
         <v>43.1</v>
       </c>
-      <c r="E75" s="16">
+      <c r="E75" s="14">
         <v>47.4</v>
       </c>
-      <c r="F75" s="16">
+      <c r="F75" s="14">
         <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="B76" s="15">
+      <c r="B76" s="13">
         <v>139.4</v>
       </c>
-      <c r="C76" s="16">
+      <c r="C76" s="14">
         <v>96.8</v>
       </c>
-      <c r="D76" s="16">
+      <c r="D76" s="14">
         <v>55.1</v>
       </c>
-      <c r="E76" s="15">
+      <c r="E76" s="13">
         <v>111.4</v>
       </c>
-      <c r="F76" s="16">
+      <c r="F76" s="14">
         <v>74.900000000000006</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="B77" s="15">
+      <c r="B77" s="13">
         <v>215.2</v>
       </c>
-      <c r="C77" s="15">
+      <c r="C77" s="13">
         <v>174.9</v>
       </c>
-      <c r="D77" s="15">
+      <c r="D77" s="13">
         <v>133.19999999999999</v>
       </c>
-      <c r="E77" s="15">
+      <c r="E77" s="13">
         <v>186.5</v>
       </c>
-      <c r="F77" s="15">
+      <c r="F77" s="13">
         <v>148.9</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
     </row>
     <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="B79" s="16">
+      <c r="B79" s="14">
         <v>38.200000000000003</v>
       </c>
-      <c r="C79" s="16">
+      <c r="C79" s="14">
         <v>25.5</v>
       </c>
-      <c r="D79" s="16">
+      <c r="D79" s="14">
         <v>21.3</v>
       </c>
-      <c r="E79" s="16">
+      <c r="E79" s="14">
         <v>59.5</v>
       </c>
-      <c r="F79" s="16">
+      <c r="F79" s="14">
         <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="14" t="s">
+      <c r="A80" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B80" s="15">
+      <c r="B80" s="13">
         <v>4174.6000000000004</v>
       </c>
-      <c r="C80" s="15">
+      <c r="C80" s="13">
         <v>3981.5</v>
       </c>
-      <c r="D80" s="15">
+      <c r="D80" s="13">
         <v>3942.8</v>
       </c>
-      <c r="E80" s="15">
+      <c r="E80" s="13">
         <v>3700.7</v>
       </c>
-      <c r="F80" s="15">
+      <c r="F80" s="13">
         <v>3855.7</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="12" t="s">
+      <c r="A81" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
     </row>
     <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="B82" s="20"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="20">
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18">
         <v>20180</v>
       </c>
-      <c r="F82" s="20">
+      <c r="F82" s="18">
         <v>22452</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B11"/>
+    <mergeCell ref="C11"/>
+    <mergeCell ref="D11"/>
+    <mergeCell ref="E11"/>
+    <mergeCell ref="F11"/>
     <mergeCell ref="E12"/>
     <mergeCell ref="E13"/>
     <mergeCell ref="F12"/>
@@ -7229,11 +7234,6 @@
     <mergeCell ref="C13"/>
     <mergeCell ref="D12"/>
     <mergeCell ref="D13"/>
-    <mergeCell ref="B11"/>
-    <mergeCell ref="C11"/>
-    <mergeCell ref="D11"/>
-    <mergeCell ref="E11"/>
-    <mergeCell ref="F11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.75"/>
   <pageSetup fitToHeight="0"/>
